--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1395,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003956</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方现代教育股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5711</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>002161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>银华万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>23.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>004361</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>上投摩根安通回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>20.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -733,32 +809,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>008033</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>中加科盈混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0593</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -771,32 +847,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>008034</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>中加科盈混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1157,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1187,32 +1263,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008033</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加科盈混合A</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.99</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0593</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1225,32 +1301,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008034</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加科盈混合C</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.99</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1268,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,7 +1365,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1319,36 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002161</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华万物互联灵活配置混合</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1357,74 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004361</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根安通回报混合A</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1438,128 +1476,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.57</v>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300648-星云股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1199,138 +1310,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1405,26 +1384,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1448,21 +1427,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1471,6 +1450,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
